--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>dataset</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,32 +461,52 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fitting_elapsed_time</t>
+          <t>ST_fitting_time</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>prediction_elapsed_time</t>
+          <t>ST_prediction_time</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>SIM_fitting_time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>SIM_prediction_time</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>st_depth</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R2 Score</t>
+          <t>st_nodes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sim_depth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sim_nodes</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ST_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SIM_score</t>
         </is>
       </c>
     </row>
@@ -508,20 +528,38 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04294681549072266</v>
+        <v>0.01699924468994141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009930133819580078</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0.01701259613037109</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.007521390914916992</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.9333333333333333</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,20 +579,38 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2361087799072266</v>
+        <v>0.1365194320678711</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0.03399991989135742</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02953100204467773</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>69</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0.7222222222222222</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,20 +630,38 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>3.671509504318237</v>
+        <v>2.388534545898438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001001834869384766</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0.1670000553131104</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2420001029968262</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>83</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.9298245614035088</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0.8771929824561403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -607,263 +681,38 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7979574203491211</v>
+        <v>1.33398699760437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0014801025390625</v>
+        <v>0.001000642776489258</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5972222222222222</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>48842</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100.0810172557831</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0156254768371582</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7667110246698741</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Diabetes Progression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>442</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6291635036468506</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>2238.013281957366</v>
-      </c>
-      <c r="J7" t="n">
-        <v>37.69669667573918</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3276897503629893</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Boston Housing</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>506</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.28470778465271</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>877.3857985605687</v>
-      </c>
-      <c r="J8" t="n">
-        <v>21.94401720844719</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.7079531475777312</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>96.23865103721619</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01561236381530762</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>459012.4385743687</v>
-      </c>
-      <c r="J9" t="n">
-        <v>509.9710847504394</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.5578763281845254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BankNote Authentication</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1372</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.289618730545044</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9309090909090909</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Shuttle</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>58000</v>
-      </c>
-      <c r="D11" t="n">
+        <v>3.376995086669922</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.918703556060791</v>
+      </c>
+      <c r="J5" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.977908134460449</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.04741787910461426</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9977586206896552</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gas Drift</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>13910</v>
-      </c>
-      <c r="D12" t="n">
-        <v>128</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1567.354058265686</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.01561594009399414</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7225017972681524</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>153</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>189</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8694444444444445</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.675</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,52 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ST_fitting_time</t>
+          <t>Fit time STDT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ST_prediction_time</t>
+          <t>Prediction time STDT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SIM_fitting_time</t>
+          <t>Score STDT</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SIM_prediction_time</t>
+          <t>Fit time CondensedDT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>st_depth</t>
+          <t>Prediction time CondensedDT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>st_nodes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sim_depth</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sim_nodes</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ST_score</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>SIM_score</t>
+          <t>Score CondensedDT</t>
         </is>
       </c>
     </row>
@@ -531,34 +511,22 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01699924468994141</v>
+        <v>0.01599884033203125</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01701259613037109</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007521390914916992</v>
+        <v>0.02599978446960449</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>0.003999948501586914</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>29</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -582,34 +550,22 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1365194320678711</v>
+        <v>0.1229982376098633</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03399991989135742</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02953100204467773</v>
+        <v>0.04700374603271484</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>0.01999711990356445</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>69</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="4">
@@ -633,34 +589,22 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>2.388534545898438</v>
+        <v>2.365621328353882</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1670000553131104</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2420001029968262</v>
+        <v>0.1370000839233398</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>0.1309998035430908</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>83</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="5">
@@ -684,34 +628,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.33398699760437</v>
+        <v>1.332000017166138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001000642776489258</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.376995086669922</v>
+        <v>0.8694444444444445</v>
       </c>
       <c r="I5" t="n">
-        <v>1.918703556060791</v>
+        <v>1.445001840591431</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>1.197999477386475</v>
       </c>
       <c r="K5" t="n">
-        <v>153</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>189</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.8694444444444445</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.675</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,24 +476,24 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Fit time CondensedDT</t>
+          <t>Fit time MeanSDTD2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time CondensedDT</t>
+          <t>Prediction time MeanSDTD2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Score CondensedDT</t>
+          <t>Score MeanSDTD2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iris</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,148 +502,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>48842</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01599884033203125</v>
+        <v>43.05207800865173</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01954865455627441</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.8617053946156208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02599978446960449</v>
+        <v>37.75418329238892</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wine</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1229982376098633</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.04700374603271484</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.01999711990356445</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Breast Cancer</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>569</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.365621328353882</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1370000839233398</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1309998035430908</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5526315789473685</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Digits</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1797</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.332000017166138</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8694444444444445</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.445001840591431</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.197999477386475</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.7655850138192241</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,39 +461,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fit time STDT</t>
+          <t>Fit time MeanSDTD5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time STDT</t>
+          <t>Prediction time MeanSDTD5</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Score STDT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fit time MeanSDTD2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction time MeanSDTD2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Score MeanSDTD2</t>
+          <t>Score MeanSDTD5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,31 +487,142 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48842</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>43.05207800865173</v>
+        <v>0.03495311737060547</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01954865455627441</v>
+        <v>0.003717184066772461</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8617053946156208</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37.75418329238892</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.002999782562255859</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7655850138192241</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08467006683349609</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.005216836929321289</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>569</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2110095024108887</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02678966522216797</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.873563051223755</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1284904479980469</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6694444444444444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>848.9199814796448</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.103223562240601</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7813491657283242</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,22 +493,22 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03495311737060547</v>
+        <v>0.01241850852966309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003717184066772461</v>
+        <v>0.002019882202148438</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -517,28 +517,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08467006683349609</v>
+        <v>0.01552677154541016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005216836929321289</v>
+        <v>0.001998424530029297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Breast Cancer</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,28 +547,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2110095024108887</v>
+        <v>0.01851320266723633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02678966522216797</v>
+        <v>0.001095771789550781</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digits</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,52 +577,802 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1797</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.873563051223755</v>
+        <v>0.0200347900390625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1284904479980469</v>
+        <v>0.0009980201721191406</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6694444444444444</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01902890205383301</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001997470855712891</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02010107040405273</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.002000808715820312</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01900410652160645</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.001998662948608398</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>178</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02503132820129395</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.002996683120727539</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>178</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03462696075439453</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.003513097763061523</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>178</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04094886779785156</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003998041152954102</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04332280158996582</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002998113632202148</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>178</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04283905029296875</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.002997398376464844</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>569</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05871868133544922</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00951385498046875</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>569</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06940793991088867</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.009506702423095703</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>569</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.07913756370544434</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01150655746459961</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>569</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09015011787414551</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01151490211486816</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9385964912280702</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>569</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.104015588760376</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01251912117004395</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>569</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1342697143554688</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01302266120910645</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3917820453643799</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03807330131530762</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4430370330810547</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04711174964904785</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5169389247894287</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05556201934814453</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6277777777777778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5396907329559326</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06408858299255371</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6077783107757568</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0812690258026123</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6580102443695068</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.07670402526855469</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7416666666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>48842</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D26" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>143.2790970802307</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6730146408081055</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7655850138192241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>106.5051383972168</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8479979038238525</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7655850138192241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="n">
-        <v>848.9199814796448</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.103223562240601</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7813491657283242</v>
+      <c r="F28" t="n">
+        <v>144.630163192749</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.000014543533325</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.724639164704678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>110.0843522548676</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.166015863418579</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5105947384583888</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>109.7461323738098</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.342014789581299</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5681236564643259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>110.5091454982758</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.504011631011963</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4791687992629747</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,47 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fit time sktree</t>
+          <t>Fit time MeanSDTD7</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time sktree</t>
+          <t>Prediction time MeanSDTD7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Score sktree</t>
+          <t>Score MeanSDTD7</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Fit time MeanSDTD6</t>
+          <t>Fit time MeanSDTD8</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time MeanSDTD6</t>
+          <t>Prediction time MeanSDTD8</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Score MeanSDTD6</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Fit time MeanSDTD7</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction time MeanSDTD7</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Score MeanSDTD7</t>
+          <t>Score MeanSDTD8</t>
         </is>
       </c>
     </row>
@@ -523,34 +508,25 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01089191436767578</v>
+        <v>0.001997709274291992</v>
       </c>
       <c r="G2" t="n">
+        <v>0.00099945068359375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.999509334564209</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.004383087158203125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.002634525299072266</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.008451938629150391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +547,25 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01470732688903809</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005963802337646484</v>
+        <v>3.430782794952393</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0104982852935791</v>
+        <v>0.0005061626434326172</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.01440906524658203</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +586,25 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01740026473999023</v>
+        <v>0.005999088287353516</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001163721084594727</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="H4" t="n">
         <v>0.9385964912280702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01647448539733887</v>
+        <v>3.451291561126709</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02051925659179688</v>
+        <v>0.0005118846893310547</v>
       </c>
       <c r="K4" t="n">
         <v>0.9122807017543859</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01962924003601074</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.004461288452148438</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9649122807017544</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +625,25 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03367710113525391</v>
+        <v>0.01299667358398438</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002825498580932617</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="H5" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08060383796691895</v>
+        <v>3.463280916213989</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06350088119506836</v>
+        <v>0.002006053924560547</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.07997035980224609</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.03223276138305664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +664,25 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.003006696701049805</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9709090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03177094459533691</v>
+        <v>3.745617389678955</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03989911079406738</v>
+        <v>0.0006358623504638672</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9781818181818182</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0161738395690918</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.9854545454545455</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +703,25 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>3.604816198348999</v>
+        <v>0.2100257873535156</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0369727611541748</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9410496046010065</v>
+        <v>0.6642703091301222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4469738006591797</v>
+        <v>5.374030828475952</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6486294269561768</v>
+        <v>1.150964975357056</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8644859813084113</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4731974601745605</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.09509420394897461</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.8659237958303379</v>
+        <v>0.6657081236520489</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +742,25 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1704142093658447</v>
+        <v>0.0520024299621582</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.009997367858886719</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9994827586206897</v>
+        <v>0.9752586206896552</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1268770694732666</v>
+        <v>3.854568958282471</v>
       </c>
       <c r="J8" t="n">
-        <v>1.926577091217041</v>
+        <v>1.143210172653198</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9927586206896551</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1274774074554443</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.01570296287536621</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.9918103448275862</v>
+        <v>0.9740517241379311</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,21 +474,6 @@
           <t>Score MeanSDTD7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fit time MeanSDTD8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction time MeanSDTD8</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Score MeanSDTD8</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -508,25 +493,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001997709274291992</v>
+        <v>0.008518695831298828</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00099945068359375</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.999509334564209</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +523,16 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.01422619819641113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001999139785766602</v>
+        <v>0.005607128143310547</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.430782794952393</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0005061626434326172</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -586,24 +553,15 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005999088287353516</v>
+        <v>0.06590604782104492</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.02136468887329102</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9385964912280702</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.451291561126709</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0005118846893310547</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.9122807017543859</v>
       </c>
     </row>
@@ -625,25 +583,16 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01299667358398438</v>
+        <v>0.1213147640228271</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004999637603759766</v>
+        <v>0.03172826766967773</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.463280916213989</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.002006053924560547</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.7861111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -664,25 +613,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004999637603759766</v>
+        <v>0.02446627616882324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003006696701049805</v>
+        <v>0.007814645767211914</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.745617389678955</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0006358623504638672</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +643,16 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2100257873535156</v>
+        <v>0.7474582195281982</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0369727611541748</v>
+        <v>0.1030089855194092</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6642703091301222</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.374030828475952</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.150964975357056</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6657081236520489</v>
+        <v>0.910136592379583</v>
       </c>
     </row>
     <row r="8">
@@ -742,25 +673,46 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0520024299621582</v>
+        <v>0.14337158203125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009997367858886719</v>
+        <v>0.03169989585876465</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9752586206896552</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.854568958282471</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.143210172653198</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9740517241379311</v>
+        <v>0.9943965517241379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.370180368423462</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3306164741516113</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8158460436073293</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,377 +474,281 @@
           <t>Score SDTree_D10</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fit time sktree</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction time sktree</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Score sktree</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>Iris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01325035095214844</v>
+        <v>0.01300048828125</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.009001016616821289</v>
       </c>
       <c r="H2" t="n">
-        <v>4534.651685393258</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3552.704650574794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>442</v>
+        <v>178</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01761889457702637</v>
+        <v>0.0149986743927002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009883642196655273</v>
+        <v>0.01300454139709473</v>
       </c>
       <c r="H3" t="n">
-        <v>4985.76404494382</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3774.825001933945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>Breast Cancer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>442</v>
+        <v>569</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03356194496154785</v>
+        <v>0.06099796295166016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006473064422607422</v>
+        <v>0.04999971389770508</v>
       </c>
       <c r="H4" t="n">
-        <v>4865.943820224719</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01210474967956543</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4337.431464167998</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>Digits</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>442</v>
+        <v>1797</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0714728832244873</v>
+        <v>0.44700026512146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01619315147399902</v>
+        <v>0.3879988193511963</v>
       </c>
       <c r="H5" t="n">
-        <v>6339.932584269663</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4303.123401210338</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>BankNote Authentication</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>442</v>
+        <v>1372</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09751462936401367</v>
+        <v>0.0370025634765625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01572704315185547</v>
+        <v>0.02699995040893555</v>
       </c>
       <c r="H6" t="n">
-        <v>4479.539325842697</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01573967933654785</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3729.603352349577</v>
+        <v>0.9818181818181818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diabetes Progression</t>
+          <t>Gas Drift</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>442</v>
+        <v>13910</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1205658912658691</v>
+        <v>2.203777313232422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01587033271789551</v>
+        <v>1.125008106231689</v>
       </c>
       <c r="H7" t="n">
-        <v>6147.752808988764</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4739.9327420786</v>
+        <v>0.8975557153127247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boston Housing</t>
+          <t>Shuttle</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>506</v>
+        <v>58000</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01263165473937988</v>
+        <v>0.8090870380401611</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.06500935554504395</v>
       </c>
       <c r="H8" t="n">
-        <v>1576.872549019608</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.002014398574829102</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>747.579540147197</v>
+        <v>0.9910344827586207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boston Housing</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>506</v>
+        <v>48842</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01961088180541992</v>
+        <v>1.243401765823364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01360535621643066</v>
+        <v>0.4274885654449463</v>
       </c>
       <c r="H9" t="n">
-        <v>1969.656862745098</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>714.2144911214368</v>
+        <v>0.8135940219060293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Boston Housing</t>
+          <t>Hepatitis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>506</v>
+        <v>1000000</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04127788543701172</v>
+        <v>14.1006190776825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01523232460021973</v>
+        <v>4.163985252380371</v>
       </c>
       <c r="H10" t="n">
-        <v>1210.93137254902</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.01201105117797852</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>760.2638330968292</v>
+        <v>0.865175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boston Housing</t>
+          <t>Diabetes Progression</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -853,31 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07374262809753418</v>
+        <v>0.334000825881958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02761054039001465</v>
+        <v>0.1289989948272705</v>
       </c>
       <c r="H11" t="n">
-        <v>1409.911764705882</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.006022214889526367</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>731.712917593333</v>
+        <v>7165.820224719101</v>
       </c>
     </row>
     <row r="12">
@@ -898,31 +793,22 @@
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1023650169372559</v>
+        <v>0.3909981250762939</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0475151538848877</v>
+        <v>0.1669998168945312</v>
       </c>
       <c r="H12" t="n">
-        <v>2086.421568627451</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>844.8862470031488</v>
+        <v>1702.039215686274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boston Housing</t>
+          <t>California Housing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -931,265 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>506</v>
+        <v>20640</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1492063999176025</v>
+        <v>0.8839554786682129</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03192877769470215</v>
+        <v>0.3900136947631836</v>
       </c>
       <c r="H13" t="n">
-        <v>2656.127450980392</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.01574254035949707</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>836.341157765218</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.788676500320435</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.638861852717539</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.1510446071624756</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.5245146178314736</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.06238245964050293</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.01434707641601562</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.34672013760126</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.1501457691192627</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4972838079675652</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0818629264831543</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.01595544815063477</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.249414624035368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1753726005554199</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.4565857103929165</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.08510661125183105</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.03369140625</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.172878514539244</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2007808685302734</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.4223348267426709</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.135322093963623</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.04785799980163574</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.093778587213663</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2213819026947021</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.4128860210492574</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1856844425201416</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.09525370597839355</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.084500946709787</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2538011074066162</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.4222257414468891</v>
+        <v>0.9336542364384689</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -496,13 +496,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01300048828125</v>
+        <v>0.0157010555267334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009001016616821289</v>
+        <v>0.001296758651733398</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +526,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0149986743927002</v>
+        <v>0.02471041679382324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01300454139709473</v>
+        <v>0.004382848739624023</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06099796295166016</v>
+        <v>0.0504612922668457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04999971389770508</v>
+        <v>0.01475977897644043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="5">
@@ -586,13 +586,13 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.44700026512146</v>
+        <v>0.1928677558898926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3879988193511963</v>
+        <v>0.09611129760742188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7055555555555556</v>
+        <v>0.7444444444444445</v>
       </c>
     </row>
     <row r="6">
@@ -616,13 +616,13 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0370025634765625</v>
+        <v>0.1171343326568604</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02699995040893555</v>
+        <v>0.03694820404052734</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9963636363636363</v>
       </c>
     </row>
     <row r="7">
@@ -646,13 +646,13 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.203777313232422</v>
+        <v>3.9241783618927</v>
       </c>
       <c r="G7" t="n">
-        <v>1.125008106231689</v>
+        <v>0.3028881549835205</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8975557153127247</v>
+        <v>0.8889288281811646</v>
       </c>
     </row>
     <row r="8">
@@ -676,13 +676,13 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8090870380401611</v>
+        <v>1.786609172821045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06500935554504395</v>
+        <v>0.06383275985717773</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9910344827586207</v>
+        <v>0.9894827586206897</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>1.243401765823364</v>
+        <v>2.114028215408325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4274885654449463</v>
+        <v>0.397730827331543</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8135940219060293</v>
+        <v>0.8212713686150066</v>
       </c>
     </row>
     <row r="10">
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>14.1006190776825</v>
+        <v>19.88306164741516</v>
       </c>
       <c r="G10" t="n">
-        <v>4.163985252380371</v>
+        <v>6.864698886871338</v>
       </c>
       <c r="H10" t="n">
-        <v>0.865175</v>
+        <v>0.877365</v>
       </c>
     </row>
     <row r="11">
@@ -766,13 +766,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.334000825881958</v>
+        <v>0.1742157936096191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1289989948272705</v>
+        <v>0.04530668258666992</v>
       </c>
       <c r="H11" t="n">
-        <v>7165.820224719101</v>
+        <v>7697.213483146067</v>
       </c>
     </row>
     <row r="12">
@@ -796,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3909981250762939</v>
+        <v>0.2116374969482422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1669998168945312</v>
+        <v>0.0632331371307373</v>
       </c>
       <c r="H12" t="n">
-        <v>1702.039215686274</v>
+        <v>1783.098039215686</v>
       </c>
     </row>
     <row r="13">
@@ -826,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8839554786682129</v>
+        <v>0.2446317672729492</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3900136947631836</v>
+        <v>0.1688055992126465</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9336542364384689</v>
+        <v>0.9080902635702518</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,21 @@
           <t>Score SDTree_D10</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fit time SDTree_D11</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Prediction time SDTree_D11</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Score SDTree_D11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,13 +511,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0157010555267334</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001296758651733398</v>
+        <v>0.00100255012512207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003000020980834961</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +550,22 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02471041679382324</v>
+        <v>0.005000829696655273</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004382848739624023</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004001379013061523</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0009968280792236328</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="4">
@@ -556,14 +589,23 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0504612922668457</v>
+        <v>0.009999275207519531</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01475977897644043</v>
+        <v>0.003999948501586914</v>
       </c>
       <c r="H4" t="n">
         <v>0.9210526315789473</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.01300263404846191</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003998041152954102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,12 +628,21 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1928677558898926</v>
+        <v>0.07700324058532715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09611129760742188</v>
+        <v>0.01899623870849609</v>
       </c>
       <c r="H5" t="n">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07200002670288086</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01699995994567871</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.7444444444444445</v>
       </c>
     </row>
@@ -616,13 +667,22 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1171343326568604</v>
+        <v>0.01400017738342285</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03694820404052734</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9963636363636363</v>
+        <v>0.9381818181818182</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01400041580200195</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9345454545454546</v>
       </c>
     </row>
     <row r="7">
@@ -646,13 +706,22 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>3.9241783618927</v>
+        <v>1.653957366943359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3028881549835205</v>
+        <v>0.06301283836364746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8889288281811646</v>
+        <v>0.8921639108554996</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3553156852722168</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.06101608276367188</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8989935298346513</v>
       </c>
     </row>
     <row r="8">
@@ -676,13 +745,22 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>1.786609172821045</v>
+        <v>0.7932195663452148</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06383275985717773</v>
+        <v>0.02351546287536621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9894827586206897</v>
+        <v>0.9906896551724138</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.200228214263916</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01700592041015625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9907758620689655</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +784,22 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>2.114028215408325</v>
+        <v>1.122697830200195</v>
       </c>
       <c r="G9" t="n">
-        <v>0.397730827331543</v>
+        <v>0.177009105682373</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8212713686150066</v>
+        <v>0.8066332275565564</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5317456722259521</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.159027099609375</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8190193469137066</v>
       </c>
     </row>
     <row r="10">
@@ -736,13 +823,22 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>19.88306164741516</v>
+        <v>12.9577317237854</v>
       </c>
       <c r="G10" t="n">
-        <v>6.864698886871338</v>
+        <v>3.523000240325928</v>
       </c>
       <c r="H10" t="n">
-        <v>0.877365</v>
+        <v>0.86436</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.71368479728699</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.504999876022339</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.87135</v>
       </c>
     </row>
     <row r="11">
@@ -766,13 +862,22 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1742157936096191</v>
+        <v>0.02099919319152832</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04530668258666992</v>
+        <v>0.004998445510864258</v>
       </c>
       <c r="H11" t="n">
-        <v>7697.213483146067</v>
+        <v>4088.47191011236</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01999998092651367</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00500035285949707</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4641.752808988764</v>
       </c>
     </row>
     <row r="12">
@@ -796,13 +901,22 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2116374969482422</v>
+        <v>0.02900099754333496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0632331371307373</v>
+        <v>0.006998300552368164</v>
       </c>
       <c r="H12" t="n">
-        <v>1783.098039215686</v>
+        <v>1888.558823529412</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0279998779296875</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006000041961669922</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1590.088235294118</v>
       </c>
     </row>
     <row r="13">
@@ -826,13 +940,22 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2446317672729492</v>
+        <v>0.0988311767578125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1688055992126465</v>
+        <v>0.06201386451721191</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9080902635702518</v>
+        <v>0.9254657965159883</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1410000324249268</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.05599713325500488</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.925583533919089</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fit time SDTree_D10</t>
+          <t>Fit time DSTree_D10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time SDTree_D10</t>
+          <t>Prediction time DSTree_D10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Score SDTree_D10</t>
+          <t>Score DSTree_D10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -511,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002999544143676758</v>
+        <v>0.007318735122680664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00100255012512207</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003000020980834961</v>
+        <v>6.34464955329895</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.002009868621826172</v>
       </c>
       <c r="K2" t="n">
         <v>0.9</v>
@@ -550,22 +550,22 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005000829696655273</v>
+        <v>0.01031112670898438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004001379013061523</v>
+        <v>0.007329702377319336</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0009968280792236328</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -589,19 +589,19 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009999275207519531</v>
+        <v>0.03126907348632812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.002786636352539062</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01300263404846191</v>
+        <v>0.01590800285339355</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003998041152954102</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0.9473684210526315</v>
@@ -628,22 +628,22 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07700324058532715</v>
+        <v>0.1158242225646973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01899623870849609</v>
+        <v>0.03172445297241211</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7055555555555556</v>
+        <v>0.7027777777777777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07200002670288086</v>
+        <v>0.09540414810180664</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01597309112548828</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.6722222222222223</v>
       </c>
     </row>
     <row r="6">
@@ -667,22 +667,22 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.02765989303588867</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.007353782653808594</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9381818181818182</v>
+        <v>0.92</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01400041580200195</v>
+        <v>0.02443718910217285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004999876022338867</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9345454545454546</v>
+        <v>0.9490909090909091</v>
       </c>
     </row>
     <row r="7">
@@ -706,22 +706,22 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>1.653957366943359</v>
+        <v>2.404195785522461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06301283836364746</v>
+        <v>0.1112713813781738</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8921639108554996</v>
+        <v>0.8914450035945363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3553156852722168</v>
+        <v>7.670363426208496</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06101608276367188</v>
+        <v>4.025373458862305</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8989935298346513</v>
+        <v>0.8914450035945363</v>
       </c>
     </row>
     <row r="8">
@@ -745,217 +745,22 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7932195663452148</v>
+        <v>0.350999116897583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02351546287536621</v>
+        <v>0.04653596878051758</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9906896551724138</v>
+        <v>0.9906034482758621</v>
       </c>
       <c r="I8" t="n">
-        <v>0.200228214263916</v>
+        <v>4.064779996871948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01700592041015625</v>
+        <v>0.01574206352233887</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9907758620689655</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>48842</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.122697830200195</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.177009105682373</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8066332275565564</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.5317456722259521</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.159027099609375</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8190193469137066</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hepatitis</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.9577317237854</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.523000240325928</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.86436</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.71368479728699</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.504999876022339</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.87135</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Diabetes Progression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>442</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.02099919319152832</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.004998445510864258</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4088.47191011236</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01999998092651367</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.00500035285949707</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4641.752808988764</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Boston Housing</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>506</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.02900099754333496</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.006998300552368164</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1888.558823529412</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0279998779296875</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.006000041961669922</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1590.088235294118</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>California Housing</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>20640</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0988311767578125</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.06201386451721191</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.9254657965159883</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1410000324249268</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05599713325500488</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.925583533919089</v>
+        <v>0.9925862068965517</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -476,17 +476,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Fit time SDTree_D11</t>
+          <t>Fit time SDTree_D12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time SDTree_D11</t>
+          <t>Prediction time SDTree_D12</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Score SDTree_D11</t>
+          <t>Score SDTree_D12</t>
         </is>
       </c>
     </row>
@@ -511,19 +511,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007318735122680664</v>
+        <v>0.00572967529296875</v>
       </c>
       <c r="G2" t="n">
+        <v>0.0009999275207519531</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.84532356262207</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.34464955329895</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.002009868621826172</v>
       </c>
       <c r="K2" t="n">
         <v>0.9</v>
@@ -550,22 +550,22 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01031112670898438</v>
+        <v>0.004996299743652344</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001003503799438477</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007329702377319336</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +589,22 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03126907348632812</v>
+        <v>0.01100492477416992</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002786636352539062</v>
+        <v>0.003991603851318359</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01590800285339355</v>
+        <v>0.006999969482421875</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="5">
@@ -628,22 +628,22 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1158242225646973</v>
+        <v>0.06899619102478027</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03172445297241211</v>
+        <v>0.01800203323364258</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7027777777777777</v>
+        <v>0.7472222222222222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09540414810180664</v>
+        <v>0.03899788856506348</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01597309112548828</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6722222222222223</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -667,19 +667,19 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02765989303588867</v>
+        <v>0.01399946212768555</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007353782653808594</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.92</v>
+        <v>0.9527272727272728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02443718910217285</v>
+        <v>0.01200032234191895</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="K6" t="n">
         <v>0.9490909090909091</v>
@@ -706,22 +706,22 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>2.404195785522461</v>
+        <v>1.086308240890503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1112713813781738</v>
+        <v>0.06500577926635742</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8914450035945363</v>
+        <v>0.8820992092020129</v>
       </c>
       <c r="I7" t="n">
-        <v>7.670363426208496</v>
+        <v>3.39441704750061</v>
       </c>
       <c r="J7" t="n">
-        <v>4.025373458862305</v>
+        <v>0.05123400688171387</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8914450035945363</v>
+        <v>0.8921639108554996</v>
       </c>
     </row>
     <row r="8">
@@ -745,22 +745,22 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.350999116897583</v>
+        <v>0.2228891849517822</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04653596878051758</v>
+        <v>0.02200579643249512</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9906034482758621</v>
+        <v>0.9912068965517241</v>
       </c>
       <c r="I8" t="n">
-        <v>4.064779996871948</v>
+        <v>1.628999471664429</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01574206352233887</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9925862068965517</v>
+        <v>0.9945689655172414</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,32 +461,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fit time DSTree_D10</t>
+          <t>Fit time SDTree_D16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time DSTree_D10</t>
+          <t>Prediction time SDTree_D16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Score DSTree_D10</t>
+          <t>Score SDTree_D16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Fit time SDTree_D12</t>
+          <t>DepthSDTree_D16</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Prediction time SDTree_D12</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Score SDTree_D12</t>
+          <t>NodesSDTree_D16</t>
         </is>
       </c>
     </row>
@@ -508,25 +503,22 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00572967529296875</v>
+        <v>0.00400090217590332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84532356262207</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -547,25 +539,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004996299743652344</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001003503799438477</v>
+        <v>0.001999378204345703</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002002716064453125</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8611111111111112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -586,25 +575,22 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01100492477416992</v>
+        <v>0.006000041961669922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003991603851318359</v>
+        <v>0.001999378204345703</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006999969482421875</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0009992122650146484</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8947368421052632</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -625,25 +611,22 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06899619102478027</v>
+        <v>0.01404786109924316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01800203323364258</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7472222222222222</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03899788856506348</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004999876022338867</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7416666666666667</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -664,25 +647,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01399946212768555</v>
+        <v>0.005998134613037109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9527272727272728</v>
+        <v>0.9018181818181819</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01200032234191895</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0009999275207519531</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9490909090909091</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +683,22 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>1.086308240890503</v>
+        <v>1.233906030654907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06500577926635742</v>
+        <v>0.0315253734588623</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8820992092020129</v>
+        <v>0.607117181883537</v>
       </c>
       <c r="I7" t="n">
-        <v>3.39441704750061</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05123400688171387</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8921639108554996</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -742,25 +719,2362 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06000638008117676</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01051211357116699</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9556034482758621</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.217301607131958</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01401162147521973</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7851366567714197</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.391434907913208</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6600997447967529</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.832835</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>442</v>
+      </c>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.2228891849517822</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.02200579643249512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9912068965517241</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.628999471664429</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.004997491836547852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002000093460083008</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4165.130380742202</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>506</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.006997108459472656</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.004000425338745117</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1614.747628888552</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02000021934509277</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.004001855850219727</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9632814724090389</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>150</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.005001544952392578</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.007006406784057617</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001997947692871094</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>569</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01299929618835449</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.003000497817993164</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0299980640411377</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.009999752044677734</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BankNote Authentication</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01250219345092773</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.004007339477539062</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9381818181818182</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gas Drift</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13910</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3061504364013672</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03900980949401855</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7447879223580158</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shuttle</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0725100040435791</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01701545715332031</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9840517241379311</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2368943691253662</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02902102470397949</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8060190398198382</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.873513460159302</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8211278915405273</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.84537</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>442</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01999831199645996</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4346.235453705826</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>506</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02899956703186035</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01200771331787109</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1340.509056196553</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.03600001335144043</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.01199984550476074</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.9945689655172414</v>
+      <c r="H25" t="n">
+        <v>0.710540196050314</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>150</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.003999471664428711</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001004695892333984</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>178</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.006996393203735352</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.002000093460083008</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>569</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01850581169128418</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0050048828125</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06400132179260254</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0165107250213623</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BankNote Authentication</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02099990844726562</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.006002187728881836</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9854545454545455</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gas Drift</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13910</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3689334392547607</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0575554370880127</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8734723220704529</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Shuttle</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.09250807762145996</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02100753784179688</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9942241379310345</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3007752895355225</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.08202552795410156</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8245470365441704</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.310073137283325</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.993466854095459</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.863205</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>442</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04850912094116211</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01099681854248047</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6244.784332084893</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>506</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.07306838035583496</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02500104904174805</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1434.169730392157</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1052658557891846</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03552460670471191</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.589886366162947</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>150</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.003999233245849609</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001002311706542969</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>178</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.009998798370361328</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001999855041503906</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>569</v>
+      </c>
+      <c r="D40" t="n">
+        <v>30</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02000141143798828</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.004997491836547852</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D41" t="n">
+        <v>64</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1070365905761719</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02600002288818359</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.7694444444444445</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BankNote Authentication</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01599693298339844</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.005000829696655273</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9890909090909091</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gas Drift</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13910</v>
+      </c>
+      <c r="D43" t="n">
+        <v>128</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4393603801727295</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.08151960372924805</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9428468727534148</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Shuttle</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1195173263549805</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02699923515319824</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9982758620689656</v>
+      </c>
+      <c r="I44" t="n">
+        <v>12</v>
+      </c>
+      <c r="J44" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5157854557037354</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2395641803741455</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8200429931415703</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.830725431442261</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.37877368927002</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.886045</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>442</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05484843254089355</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01240348815917969</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7184.337078651685</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>506</v>
+      </c>
+      <c r="D48" t="n">
+        <v>13</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.09112954139709473</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0250394344329834</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1492.813725490196</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.364506721496582</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1248009204864502</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5696148771052978</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>150</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.004997968673706055</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.001000165939331055</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>178</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.008499860763549805</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.002005338668823242</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10</v>
+      </c>
+      <c r="J51" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>569</v>
+      </c>
+      <c r="D52" t="n">
+        <v>30</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01903796195983887</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.004992008209228516</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D53" t="n">
+        <v>64</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1170167922973633</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02854061126708984</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8027777777777778</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BankNote Authentication</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01777434349060059</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.003995895385742188</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9890909090909091</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Gas Drift</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>13910</v>
+      </c>
+      <c r="D55" t="n">
+        <v>128</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.7145774364471436</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1031274795532227</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9698058950395398</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Shuttle</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1347172260284424</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03155422210693359</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9989655172413793</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14</v>
+      </c>
+      <c r="J56" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.192073583602905</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.624481201171875</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8158460436073293</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10683</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>19</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.058340072631836</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.027427673339844</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.898685</v>
+      </c>
+      <c r="I58" t="n">
+        <v>14</v>
+      </c>
+      <c r="J58" t="n">
+        <v>13323</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>442</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.05374884605407715</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01152133941650391</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5069.842696629214</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>506</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.09580183029174805</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02657604217529297</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1641.313725490196</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.275398015975952</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3434822559356689</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6381579637856297</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Iris</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>150</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.004500150680541992</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001005649566650391</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>178</v>
+      </c>
+      <c r="D63" t="n">
+        <v>13</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.004997491836547852</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.00151824951171875</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>569</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>16</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01895904541015625</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.005476474761962891</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9035087719298246</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Digits</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1174757480621338</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02602767944335938</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BankNote Authentication</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>16</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01852226257324219</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.005025148391723633</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9927272727272727</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Gas Drift</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>13910</v>
+      </c>
+      <c r="D67" t="n">
+        <v>128</v>
+      </c>
+      <c r="E67" t="n">
+        <v>16</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5980360507965088</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1051499843597412</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9698058950395398</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Shuttle</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>16</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1359996795654297</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.02789545059204102</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9988793103448276</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>48842</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14</v>
+      </c>
+      <c r="E69" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.300740480422974</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.018558740615845</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8033575596273927</v>
+      </c>
+      <c r="I69" t="n">
+        <v>16</v>
+      </c>
+      <c r="J69" t="n">
+        <v>21473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hepatitis</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>19</v>
+      </c>
+      <c r="E70" t="n">
+        <v>16</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.189083576202393</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.866678714752197</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.90793</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>41483</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Diabetes Progression</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>442</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>16</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.05410909652709961</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01151061058044434</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6968.426966292135</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Boston Housing</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>506</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.09129238128662109</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.02657532691955566</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2038.705882352941</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>California Housing</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>20640</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.419615983963013</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5170376300811768</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.7857281822993301</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30775</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00400090217590332</v>
+        <v>0.002998113632202148</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.001006364822387695</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -542,19 +542,19 @@
         <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003999710083007812</v>
+        <v>0.003000736236572266</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001999378204345703</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.005999565124511719</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001999378204345703</v>
+        <v>0.002002239227294922</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
@@ -614,19 +614,19 @@
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01404786109924316</v>
+        <v>0.01451253890991211</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004000186920166016</v>
+        <v>0.002999305725097656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5888888888888889</v>
+        <v>0.6055555555555555</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -650,13 +650,13 @@
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005998134613037109</v>
+        <v>0.006002426147460938</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.001994848251342773</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9018181818181819</v>
+        <v>0.8436363636363636</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -686,19 +686,19 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>1.233906030654907</v>
+        <v>1.127680778503418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0315253734588623</v>
+        <v>0.03500890731811523</v>
       </c>
       <c r="H7" t="n">
-        <v>0.607117181883537</v>
+        <v>0.5873472322070453</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -722,13 +722,13 @@
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06000638008117676</v>
+        <v>0.06551575660705566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01051211357116699</v>
+        <v>0.01100754737854004</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9556034482758621</v>
+        <v>0.9663793103448276</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -758,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.217301607131958</v>
+        <v>0.1906342506408691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01401162147521973</v>
+        <v>0.009006261825561523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7851366567714197</v>
+        <v>0.8053024874603337</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
@@ -794,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>2.391434907913208</v>
+        <v>1.780016899108887</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6600997447967529</v>
+        <v>0.4020967483520508</v>
       </c>
       <c r="H10" t="n">
-        <v>0.832835</v>
+        <v>0.82034</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004997491836547852</v>
+        <v>0.004998683929443359</v>
       </c>
       <c r="G11" t="n">
         <v>0.002000093460083008</v>
       </c>
       <c r="H11" t="n">
-        <v>4165.130380742202</v>
+        <v>3784.923591027473</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -866,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006997108459472656</v>
+        <v>0.007001876831054688</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.001998424530029297</v>
       </c>
       <c r="H12" t="n">
-        <v>1614.747628888552</v>
+        <v>1715.948308752968</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -902,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02000021934509277</v>
+        <v>0.02100729942321777</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004001855850219727</v>
+        <v>0.004992485046386719</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9632814724090389</v>
+        <v>0.9388168111616175</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
@@ -938,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005001544952392578</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009965896606445312</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="I14" t="n">
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -974,19 +974,19 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007006406784057617</v>
+        <v>0.006997823715209961</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001997947692871094</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I15" t="n">
         <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1010,19 +1010,19 @@
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01299929618835449</v>
+        <v>0.01200103759765625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003000497817993164</v>
+        <v>0.002997875213623047</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="I16" t="n">
         <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -1046,19 +1046,19 @@
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0299980640411377</v>
+        <v>0.02928686141967773</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009999752044677734</v>
+        <v>0.007999658584594727</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.725</v>
       </c>
       <c r="I17" t="n">
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
@@ -1082,19 +1082,19 @@
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01250219345092773</v>
+        <v>0.01300406455993652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.003995895385742188</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9381818181818182</v>
+        <v>0.9672727272727273</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -1118,19 +1118,19 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3061504364013672</v>
+        <v>0.3146719932556152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03900980949401855</v>
+        <v>0.04001760482788086</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7447879223580158</v>
+        <v>0.7480230050323509</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
@@ -1154,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0725100040435791</v>
+        <v>0.07251620292663574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01701545715332031</v>
+        <v>0.01399922370910645</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9840517241379311</v>
+        <v>0.9808620689655172</v>
       </c>
       <c r="I20" t="n">
         <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -1190,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2368943691253662</v>
+        <v>0.2109689712524414</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02902102470397949</v>
+        <v>0.02101588249206543</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8060190398198382</v>
+        <v>0.812672740300952</v>
       </c>
       <c r="I21" t="n">
         <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
@@ -1226,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>2.873513460159302</v>
+        <v>1.956054925918579</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8211278915405273</v>
+        <v>0.5176174640655518</v>
       </c>
       <c r="H22" t="n">
-        <v>0.84537</v>
+        <v>0.851475</v>
       </c>
       <c r="I22" t="n">
         <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01999831199645996</v>
+        <v>0.01900744438171387</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.006047487258911133</v>
       </c>
       <c r="H23" t="n">
-        <v>4346.235453705826</v>
+        <v>5440.864444125964</v>
       </c>
       <c r="I23" t="n">
         <v>8</v>
@@ -1298,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02899956703186035</v>
+        <v>0.02399849891662598</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01200771331787109</v>
+        <v>0.008001804351806641</v>
       </c>
       <c r="H24" t="n">
-        <v>1340.509056196553</v>
+        <v>2038.698765280804</v>
       </c>
       <c r="I24" t="n">
         <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
@@ -1334,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03600001335144043</v>
+        <v>0.04001379013061523</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.01153111457824707</v>
       </c>
       <c r="H25" t="n">
-        <v>0.710540196050314</v>
+        <v>0.7166672812988919</v>
       </c>
       <c r="I25" t="n">
         <v>8</v>
@@ -1370,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003999471664428711</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001004695892333984</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -1406,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006996393203735352</v>
+        <v>0.006999492645263672</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.0019989013671875</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I27" t="n">
         <v>9</v>
@@ -1442,19 +1442,19 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01850581169128418</v>
+        <v>0.01999926567077637</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0050048828125</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="I28" t="n">
         <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
@@ -1478,19 +1478,19 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06400132179260254</v>
+        <v>0.06352567672729492</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0165107250213623</v>
+        <v>0.01599931716918945</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7944444444444444</v>
+        <v>0.8111111111111111</v>
       </c>
       <c r="I29" t="n">
         <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>589</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30">
@@ -1514,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02099990844726562</v>
+        <v>0.01801252365112305</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006002187728881836</v>
+        <v>0.004523754119873047</v>
       </c>
       <c r="H30" t="n">
         <v>0.9854545454545455</v>
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="J30" t="n">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
@@ -1550,19 +1550,19 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3689334392547607</v>
+        <v>0.548367977142334</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0575554370880127</v>
+        <v>0.05500531196594238</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8734723220704529</v>
+        <v>0.8745506829618979</v>
       </c>
       <c r="I31" t="n">
         <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32">
@@ -1586,19 +1586,19 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09250807762145996</v>
+        <v>0.09651589393615723</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02100753784179688</v>
+        <v>0.01900005340576172</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9942241379310345</v>
+        <v>0.9923275862068965</v>
       </c>
       <c r="I32" t="n">
         <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33">
@@ -1622,19 +1622,19 @@
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3007752895355225</v>
+        <v>0.2631354331970215</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08202552795410156</v>
+        <v>0.05101108551025391</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8245470365441704</v>
+        <v>0.8177909714402702</v>
       </c>
       <c r="I33" t="n">
         <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="34">
@@ -1658,19 +1658,19 @@
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>3.310073137283325</v>
+        <v>2.137578248977661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.993466854095459</v>
+        <v>0.6094236373901367</v>
       </c>
       <c r="H34" t="n">
-        <v>0.863205</v>
+        <v>0.866225</v>
       </c>
       <c r="I34" t="n">
         <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>993</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35">
@@ -1694,19 +1694,19 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04850912094116211</v>
+        <v>0.04651522636413574</v>
       </c>
       <c r="G35" t="n">
         <v>0.01099681854248047</v>
       </c>
       <c r="H35" t="n">
-        <v>6244.784332084893</v>
+        <v>7769.472222222222</v>
       </c>
       <c r="I35" t="n">
         <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36">
@@ -1730,19 +1730,19 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07306838035583496</v>
+        <v>0.06052350997924805</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02500104904174805</v>
+        <v>0.0149989128112793</v>
       </c>
       <c r="H36" t="n">
-        <v>1434.169730392157</v>
+        <v>1566.214324618737</v>
       </c>
       <c r="I36" t="n">
         <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37">
@@ -1766,13 +1766,13 @@
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1052658557891846</v>
+        <v>0.1025140285491943</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03552460670471191</v>
+        <v>0.03400778770446777</v>
       </c>
       <c r="H37" t="n">
-        <v>0.589886366162947</v>
+        <v>0.606609271746945</v>
       </c>
       <c r="I37" t="n">
         <v>10</v>
@@ -1802,19 +1802,19 @@
         <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003999233245849609</v>
+        <v>0.005511283874511719</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001002311706542969</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -1838,19 +1838,19 @@
         <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.009998798370361328</v>
+        <v>0.00899815559387207</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.001997709274291992</v>
       </c>
       <c r="H39" t="n">
         <v>0.9722222222222222</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -1874,19 +1874,19 @@
         <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02000141143798828</v>
+        <v>0.02100205421447754</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004997491836547852</v>
+        <v>0.004996776580810547</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="I40" t="n">
         <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41">
@@ -1910,19 +1910,19 @@
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1070365905761719</v>
+        <v>0.1105263233184814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02600002288818359</v>
+        <v>0.02551007270812988</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7694444444444445</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="I41" t="n">
         <v>12</v>
       </c>
       <c r="J41" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="42">
@@ -1946,19 +1946,19 @@
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01599693298339844</v>
+        <v>0.01999902725219727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005000829696655273</v>
+        <v>0.005002975463867188</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9890909090909091</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="I42" t="n">
         <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43">
@@ -1982,19 +1982,19 @@
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4393603801727295</v>
+        <v>0.4747922420501709</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08151960372924805</v>
+        <v>0.08952236175537109</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9428468727534148</v>
+        <v>0.9352983465132998</v>
       </c>
       <c r="I43" t="n">
         <v>12</v>
       </c>
       <c r="J43" t="n">
-        <v>1375</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="44">
@@ -2018,19 +2018,19 @@
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1195173263549805</v>
+        <v>0.1215159893035889</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02699923515319824</v>
+        <v>0.02599978446960449</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9982758620689656</v>
+        <v>0.9964655172413793</v>
       </c>
       <c r="I44" t="n">
         <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>585</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45">
@@ -2054,19 +2054,19 @@
         <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5157854557037354</v>
+        <v>0.4211299419403076</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2395641803741455</v>
+        <v>0.1555407047271729</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8200429931415703</v>
+        <v>0.8211690039922203</v>
       </c>
       <c r="I45" t="n">
         <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>3457</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="46">
@@ -2090,19 +2090,19 @@
         <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>3.830725431442261</v>
+        <v>2.551012992858887</v>
       </c>
       <c r="G46" t="n">
-        <v>1.37877368927002</v>
+        <v>0.7830641269683838</v>
       </c>
       <c r="H46" t="n">
-        <v>0.886045</v>
+        <v>0.880095</v>
       </c>
       <c r="I46" t="n">
         <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>3865</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="47">
@@ -2126,13 +2126,13 @@
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05484843254089355</v>
+        <v>0.05300235748291016</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01240348815917969</v>
+        <v>0.01151180267333984</v>
       </c>
       <c r="H47" t="n">
-        <v>7184.337078651685</v>
+        <v>6788.483146067416</v>
       </c>
       <c r="I47" t="n">
         <v>12</v>
@@ -2162,19 +2162,19 @@
         <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09112954139709473</v>
+        <v>0.06900310516357422</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0250394344329834</v>
+        <v>0.01722192764282227</v>
       </c>
       <c r="H48" t="n">
-        <v>1492.813725490196</v>
+        <v>2391.71568627451</v>
       </c>
       <c r="I48" t="n">
         <v>12</v>
       </c>
       <c r="J48" t="n">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49">
@@ -2198,13 +2198,13 @@
         <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>0.364506721496582</v>
+        <v>0.3387191295623779</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1248009204864502</v>
+        <v>0.1205446720123291</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5696148771052978</v>
+        <v>0.5591112107896037</v>
       </c>
       <c r="I49" t="n">
         <v>12</v>
@@ -2234,19 +2234,19 @@
         <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004997968673706055</v>
+        <v>0.006032943725585938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -2270,19 +2270,19 @@
         <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.008499860763549805</v>
+        <v>0.007993936538696289</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.002001047134399414</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I51" t="n">
         <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -2306,19 +2306,19 @@
         <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01903796195983887</v>
+        <v>0.01700162887573242</v>
       </c>
       <c r="G52" t="n">
-        <v>0.004992008209228516</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="H52" t="n">
         <v>0.9122807017543859</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53">
@@ -2342,19 +2342,19 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1170167922973633</v>
+        <v>0.1085302829742432</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02854061126708984</v>
+        <v>0.02502083778381348</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8027777777777778</v>
+        <v>0.8138888888888889</v>
       </c>
       <c r="I53" t="n">
         <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>1121</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="54">
@@ -2378,19 +2378,19 @@
         <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01777434349060059</v>
+        <v>0.01751351356506348</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003995895385742188</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="H54" t="n">
         <v>0.9890909090909091</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
@@ -2414,19 +2414,19 @@
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7145774364471436</v>
+        <v>0.57200026512146</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1031274795532227</v>
+        <v>0.09554862976074219</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9698058950395398</v>
+        <v>0.9687275341480949</v>
       </c>
       <c r="I55" t="n">
         <v>14</v>
       </c>
       <c r="J55" t="n">
-        <v>2035</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="56">
@@ -2450,13 +2450,13 @@
         <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1347172260284424</v>
+        <v>0.1335210800170898</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03155422210693359</v>
+        <v>0.02999973297119141</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9989655172413793</v>
+        <v>0.9983620689655173</v>
       </c>
       <c r="I56" t="n">
         <v>14</v>
@@ -2486,19 +2486,19 @@
         <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>1.192073583602905</v>
+        <v>1.022908687591553</v>
       </c>
       <c r="G57" t="n">
-        <v>0.624481201171875</v>
+        <v>0.3911240100860596</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8158460436073293</v>
+        <v>0.8169720544579793</v>
       </c>
       <c r="I57" t="n">
         <v>14</v>
       </c>
       <c r="J57" t="n">
-        <v>10683</v>
+        <v>10257</v>
       </c>
     </row>
     <row r="58">
@@ -2522,19 +2522,19 @@
         <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>5.058340072631836</v>
+        <v>3.847681283950806</v>
       </c>
       <c r="G58" t="n">
-        <v>2.027427673339844</v>
+        <v>1.265092134475708</v>
       </c>
       <c r="H58" t="n">
-        <v>0.898685</v>
+        <v>0.897695</v>
       </c>
       <c r="I58" t="n">
         <v>14</v>
       </c>
       <c r="J58" t="n">
-        <v>13323</v>
+        <v>13759</v>
       </c>
     </row>
     <row r="59">
@@ -2558,13 +2558,13 @@
         <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05374884605407715</v>
+        <v>0.053985595703125</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01152133941650391</v>
+        <v>0.01099920272827148</v>
       </c>
       <c r="H59" t="n">
-        <v>5069.842696629214</v>
+        <v>6790.314606741573</v>
       </c>
       <c r="I59" t="n">
         <v>12</v>
@@ -2594,13 +2594,13 @@
         <v>14</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09580183029174805</v>
+        <v>0.07251906394958496</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02657604217529297</v>
+        <v>0.01799941062927246</v>
       </c>
       <c r="H60" t="n">
-        <v>1641.313725490196</v>
+        <v>1400.28431372549</v>
       </c>
       <c r="I60" t="n">
         <v>14</v>
@@ -2630,19 +2630,19 @@
         <v>14</v>
       </c>
       <c r="F61" t="n">
-        <v>1.275398015975952</v>
+        <v>1.240901231765747</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3434822559356689</v>
+        <v>0.3286423683166504</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6381579637856297</v>
+        <v>0.640470805684579</v>
       </c>
       <c r="I61" t="n">
         <v>14</v>
       </c>
       <c r="J61" t="n">
-        <v>15517</v>
+        <v>15421</v>
       </c>
     </row>
     <row r="62">
@@ -2666,19 +2666,19 @@
         <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004500150680541992</v>
+        <v>0.005997896194458008</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001005649566650391</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>9</v>
       </c>
       <c r="J62" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63">
@@ -2702,19 +2702,19 @@
         <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004997491836547852</v>
+        <v>0.008993864059448242</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00151824951171875</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I63" t="n">
         <v>9</v>
       </c>
       <c r="J63" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
@@ -2738,19 +2738,19 @@
         <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01895904541015625</v>
+        <v>0.01999902725219727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.005476474761962891</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
@@ -2774,19 +2774,19 @@
         <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1174757480621338</v>
+        <v>0.1135110855102539</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02602767944335938</v>
+        <v>0.02700448036193848</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8305555555555556</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="I65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J65" t="n">
-        <v>1129</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="66">
@@ -2810,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01852226257324219</v>
+        <v>0.01499772071838379</v>
       </c>
       <c r="G66" t="n">
-        <v>0.005025148391723633</v>
+        <v>0.003998279571533203</v>
       </c>
       <c r="H66" t="n">
         <v>0.9927272727272727</v>
@@ -2822,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="J66" t="n">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -2846,19 +2846,19 @@
         <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5980360507965088</v>
+        <v>0.5790247917175293</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1051499843597412</v>
+        <v>0.1035697460174561</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9698058950395398</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="I67" t="n">
         <v>16</v>
       </c>
       <c r="J67" t="n">
-        <v>2249</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="68">
@@ -2882,19 +2882,19 @@
         <v>16</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1359996795654297</v>
+        <v>0.1315186023712158</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02789545059204102</v>
+        <v>0.02800559997558594</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9988793103448276</v>
+        <v>0.9983620689655173</v>
       </c>
       <c r="I68" t="n">
         <v>16</v>
       </c>
       <c r="J68" t="n">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69">
@@ -2918,19 +2918,19 @@
         <v>16</v>
       </c>
       <c r="F69" t="n">
-        <v>2.300740480422974</v>
+        <v>1.837278366088867</v>
       </c>
       <c r="G69" t="n">
-        <v>1.018558740615845</v>
+        <v>0.6608207225799561</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8033575596273927</v>
+        <v>0.7917903572525335</v>
       </c>
       <c r="I69" t="n">
         <v>16</v>
       </c>
       <c r="J69" t="n">
-        <v>21473</v>
+        <v>22013</v>
       </c>
     </row>
     <row r="70">
@@ -2954,19 +2954,19 @@
         <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>9.189083576202393</v>
+        <v>7.885231256484985</v>
       </c>
       <c r="G70" t="n">
-        <v>3.866678714752197</v>
+        <v>2.573310852050781</v>
       </c>
       <c r="H70" t="n">
-        <v>0.90793</v>
+        <v>0.906395</v>
       </c>
       <c r="I70" t="n">
         <v>16</v>
       </c>
       <c r="J70" t="n">
-        <v>41483</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="71">
@@ -2990,13 +2990,13 @@
         <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05410909652709961</v>
+        <v>0.05298471450805664</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01151061058044434</v>
+        <v>0.01200461387634277</v>
       </c>
       <c r="H71" t="n">
-        <v>6968.426966292135</v>
+        <v>5508.258426966292</v>
       </c>
       <c r="I71" t="n">
         <v>12</v>
@@ -3026,13 +3026,13 @@
         <v>16</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09129238128662109</v>
+        <v>0.07099676132202148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02657532691955566</v>
+        <v>0.01600503921508789</v>
       </c>
       <c r="H72" t="n">
-        <v>2038.705882352941</v>
+        <v>2593.627450980392</v>
       </c>
       <c r="I72" t="n">
         <v>12</v>
@@ -3062,19 +3062,19 @@
         <v>16</v>
       </c>
       <c r="F73" t="n">
-        <v>2.419615983963013</v>
+        <v>2.386500120162964</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5170376300811768</v>
+        <v>0.5063114166259766</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7857281822993301</v>
+        <v>0.7919302793874413</v>
       </c>
       <c r="I73" t="n">
         <v>16</v>
       </c>
       <c r="J73" t="n">
-        <v>30775</v>
+        <v>31163</v>
       </c>
     </row>
   </sheetData>
